--- a/mosip_master/xlsx/screen_detail.xlsx
+++ b/mosip_master/xlsx/screen_detail.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1044292\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Office\codes\bfa\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="2184" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="25">
   <si>
     <t>lang_code</t>
   </si>
@@ -44,15 +44,9 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
     <t>approveRegistrationRoot</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>loginRoot</t>
   </si>
   <si>
@@ -102,12 +96,15 @@
   </si>
   <si>
     <t>correctionRoot</t>
+  </si>
+  <si>
+    <t>fra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -167,7 +164,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,20 +475,20 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -512,344 +508,344 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2">
+        <v>10003</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C3">
+        <v>10003</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4">
+        <v>10003</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C5">
+        <v>10003</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C6">
+        <v>10003</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C7">
+        <v>10003</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C8">
+        <v>10003</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C9">
+        <v>10003</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C10">
+        <v>10003</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C11">
+        <v>10003</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C12">
+        <v>10003</v>
+      </c>
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C13">
+        <v>10003</v>
+      </c>
+      <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C14">
+        <v>10003</v>
+      </c>
+      <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="C15">
+        <v>10003</v>
+      </c>
+      <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="E15" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C16">
+        <v>10003</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="C17">
+        <v>10003</v>
+      </c>
+      <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C18">
+        <v>10003</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E18" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1">
-        <v>10003</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>8</v>
+      <c r="F18" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
